--- a/EDGE.xlsx
+++ b/EDGE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>problem</t>
   </si>
@@ -120,6 +120,9 @@
   </si>
   <si>
     <t>d1655</t>
+  </si>
+  <si>
+    <t>&gt;24hrs</t>
   </si>
 </sst>
 </file>
@@ -502,7 +505,7 @@
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -647,6 +650,15 @@
       <c r="A9" t="s">
         <v>12</v>
       </c>
+      <c r="B9">
+        <v>8000</v>
+      </c>
+      <c r="C9">
+        <v>77</v>
+      </c>
+      <c r="D9">
+        <v>2530</v>
+      </c>
       <c r="E9">
         <v>2323</v>
       </c>
@@ -655,6 +667,15 @@
       <c r="A10" t="s">
         <v>13</v>
       </c>
+      <c r="B10">
+        <v>6746.3137140274002</v>
+      </c>
+      <c r="C10">
+        <v>71</v>
+      </c>
+      <c r="D10">
+        <v>16326</v>
+      </c>
       <c r="E10">
         <v>15780</v>
       </c>
@@ -671,6 +692,15 @@
       <c r="A12" t="s">
         <v>15</v>
       </c>
+      <c r="B12">
+        <v>42547.000015020298</v>
+      </c>
+      <c r="C12">
+        <v>106</v>
+      </c>
+      <c r="D12">
+        <v>12603</v>
+      </c>
       <c r="E12">
         <v>11861</v>
       </c>
@@ -678,6 +708,15 @@
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13">
+        <v>200</v>
+      </c>
+      <c r="D13">
+        <v>36101</v>
       </c>
       <c r="E13">
         <v>34643</v>

--- a/EDGE.xlsx
+++ b/EDGE.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>problem</t>
   </si>
@@ -123,6 +123,15 @@
   </si>
   <si>
     <t>&gt;24hrs</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>error with 2-opt(%)</t>
+  </si>
+  <si>
+    <t>error before 2-opt(%)</t>
   </si>
 </sst>
 </file>
@@ -502,15 +511,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,110 +535,176 @@
       <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>363.01303672790499</v>
+      </c>
+      <c r="C2">
+        <v>16</v>
+      </c>
+      <c r="D2">
+        <v>10702</v>
+      </c>
+      <c r="E2">
+        <v>10628</v>
+      </c>
+      <c r="F2">
+        <v>48</v>
+      </c>
+      <c r="G2">
+        <f>(D2-E2)*100/E2</f>
+        <v>0.69627399322544226</v>
+      </c>
+      <c r="H2">
+        <v>9.0459164471208098</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>471.71280741691498</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>14</v>
       </c>
-      <c r="D2">
-        <v>677</v>
-      </c>
-      <c r="E2">
+      <c r="D3">
         <v>675</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="E3">
+        <v>675</v>
+      </c>
+      <c r="F3">
+        <v>70</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G13" si="0">(D3-E3)*100/E3</f>
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>17.12592592592593</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>2300.8527221679601</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>51</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>46322</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>44303</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="F4">
+        <v>107</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>4.5572534591336931</v>
+      </c>
+      <c r="H4">
+        <v>22.395774552513373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>2035.01712870597</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>35</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>60232</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>59030</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="F5">
+        <v>124</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>2.03625275283754</v>
+      </c>
+      <c r="H5">
+        <v>44.694731492461472</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>3075.1670832633899</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>38</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>122506</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>118282</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6">
+        <v>127</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>3.571126629580156</v>
+      </c>
+      <c r="H6">
+        <v>17.604031044453084</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>2377.8300623893701</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>32</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>103956</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>96772</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7">
-        <v>363.01303672790499</v>
-      </c>
-      <c r="C7">
-        <v>16</v>
-      </c>
-      <c r="D7">
-        <v>33845</v>
-      </c>
-      <c r="E7">
-        <v>10628</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F7">
+        <v>136</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>7.42363493572521</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -645,8 +720,15 @@
       <c r="E8">
         <v>73682</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F8">
+        <v>152</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>2.3167123585136125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -662,8 +744,15 @@
       <c r="E9">
         <v>2323</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9">
+        <v>195</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>8.9108910891089117</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>13</v>
       </c>
@@ -679,16 +768,30 @@
       <c r="E10">
         <v>15780</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <v>198</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>3.4600760456273765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="E11">
         <v>42029</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11">
+        <v>318</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>-100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -704,8 +807,15 @@
       <c r="E12">
         <v>11861</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12">
+        <v>417</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>6.2557963072253608</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>16</v>
       </c>
@@ -721,8 +831,15 @@
       <c r="E13">
         <v>34643</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13">
+        <v>654</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>4.2086424385878818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>17</v>
       </c>
@@ -730,7 +847,7 @@
         <v>36905</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -738,7 +855,7 @@
         <v>21282</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>19</v>
       </c>
@@ -843,6 +960,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:F28">
+    <sortCondition ref="F13"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>